--- a/biology/Botanique/Jules_Margottin/Jules_Margottin.xlsx
+++ b/biology/Botanique/Jules_Margottin/Jules_Margottin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Jules Margottin' est un cultivar de rosier hybride remontant obtenu par Margottin père à Bourg-la-Reine en 1853[1]. Il doit son nom au fils de l'obtenteur, Jules Margottin né en 1842 et futur pépiniériste. Ce rosier est issu d'un semis de 'La Reine' (Laffay, 1842).
+'Jules Margottin' est un cultivar de rosier hybride remontant obtenu par Margottin père à Bourg-la-Reine en 1853. Il doit son nom au fils de l'obtenteur, Jules Margottin né en 1842 et futur pépiniériste. Ce rosier est issu d'un semis de 'La Reine' (Laffay, 1842).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un rosier au buisson épineux fort vigoureux de 125 cm à 180 cm de hauteur et de 90 cm d'envergure qui donne au printemps de grandes roses (90 pétales) d'un carmin vif, plus éclatant au cœur[2]. Leur pourtour (+ 41 pétales) est en forme de coupe. Elles sont parfumées. La floraison est ensuite remontante[3],[4].
-La  zone de rusticité est de 6b à 9b, 'Jules Margottin' est donc résistant aux froids de l'hiver[5]. Ce rosier doit être traité éventuellement contre le mildiou.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un rosier au buisson épineux fort vigoureux de 125 cm à 180 cm de hauteur et de 90 cm d'envergure qui donne au printemps de grandes roses (90 pétales) d'un carmin vif, plus éclatant au cœur. Leur pourtour (+ 41 pétales) est en forme de coupe. Elles sont parfumées. La floraison est ensuite remontante,.
+La  zone de rusticité est de 6b à 9b, 'Jules Margottin' est donc résistant aux froids de l'hiver. Ce rosier doit être traité éventuellement contre le mildiou.
 L'on peut admirer cette variété ancienne toujours très prisée à la roseraie du Val-de-Marne de L'Haÿ-les-Roses.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rosier 'Jules Margottin' a donné naissance à l'hybride remontant 'Victor Verdier' (Lacharme, 1859), à l'hybride remontant de couleur blanche 'Madame Lacharme' (Lacharme, 1872[6],[7]), à l'hybride remontant 'Madame Gabriel Luizet' (Liabaud, 1877), à l'hybride remontant 'Comte Adrien de Germiny' (Lévêque, 1881), à l'hybride remontant 'Alphonse Soupert' (Lacharme, 1884), au polyantha blanc 'Mademoiselle Bertha Ludi' (Pernet-Ducher, 1891)[8] et à l'hybride de thé 'Frau Oberhofgärtner Singer' (Lambert, 1908).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rosier 'Jules Margottin' a donné naissance à l'hybride remontant 'Victor Verdier' (Lacharme, 1859), à l'hybride remontant de couleur blanche 'Madame Lacharme' (Lacharme, 1872,), à l'hybride remontant 'Madame Gabriel Luizet' (Liabaud, 1877), à l'hybride remontant 'Comte Adrien de Germiny' (Lévêque, 1881), à l'hybride remontant 'Alphonse Soupert' (Lacharme, 1884), au polyantha blanc 'Mademoiselle Bertha Ludi' (Pernet-Ducher, 1891) et à l'hybride de thé 'Frau Oberhofgärtner Singer' (Lambert, 1908).
 </t>
         </is>
       </c>
